--- a/data/trans_orig/IP18A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7F921E9-95C9-407C-850D-D847BFA33583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C67D8500-8AFC-4BE5-B134-0429038432DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0450BA95-952D-47AC-89A4-6589ED06187E}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1ED29A78-3CE6-4570-8AE0-EC80C6FE8A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,120 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>94,23%</t>
   </si>
   <si>
@@ -101,9 +209,6 @@
     <t>95,59%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>5,77%</t>
   </si>
   <si>
@@ -131,64 +236,61 @@
     <t>8,42%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,108 +350,6 @@
     <t>14,82%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
     <t>91,64%</t>
   </si>
   <si>
@@ -401,6 +401,105 @@
     <t>Menores según su última visita al médico fue por vacunación en 2012 (Tasa respuesta: 93,38%)</t>
   </si>
   <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
     <t>91,15%</t>
   </si>
   <si>
@@ -449,58 +548,52 @@
     <t>5,78%</t>
   </si>
   <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
   </si>
   <si>
     <t>88,14%</t>
@@ -557,99 +650,6 @@
     <t>15,68%</t>
   </si>
   <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
     <t>89,99%</t>
   </si>
   <si>
@@ -683,6 +683,96 @@
     <t>Menores según su última visita al médico fue por vacunación en 2015 (Tasa respuesta: 90,4%)</t>
   </si>
   <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
     <t>91,23%</t>
   </si>
   <si>
@@ -737,46 +827,46 @@
     <t>10,45%</t>
   </si>
   <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
   </si>
   <si>
     <t>91,17%</t>
@@ -833,96 +923,6 @@
     <t>13,4%</t>
   </si>
   <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
     <t>91,25%</t>
   </si>
   <si>
@@ -980,6 +980,42 @@
     <t>Menores según su última visita al médico fue por vacunación en 2023 (Tasa respuesta: 17,76%)</t>
   </si>
   <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
     <t>92,38%</t>
   </si>
   <si>
@@ -1034,22 +1070,34 @@
     <t>13,55%</t>
   </si>
   <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>95,81%</t>
@@ -1098,54 +1146,6 @@
   </si>
   <si>
     <t>13,1%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
   </si>
   <si>
     <t>95,86%</t>
@@ -1591,7 +1591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0B4E07-B7D6-44FA-8C5A-FAB194A1E28D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B915C7-A973-46EE-82FC-91661EEB2306}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1709,10 +1709,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>169527</v>
+        <v>21431</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1724,10 +1724,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>154130</v>
+        <v>18734</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1736,73 +1736,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>52</v>
+      </c>
+      <c r="N4" s="7">
+        <v>40165</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>505</v>
-      </c>
-      <c r="N4" s="7">
-        <v>323657</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>755</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7">
-        <v>10389</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>770</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>18</v>
-      </c>
-      <c r="I5" s="7">
-        <v>11223</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1525</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>34</v>
-      </c>
-      <c r="N5" s="7">
-        <v>21612</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,54 +1811,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>274</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>179916</v>
+        <v>22186</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="I6" s="7">
-        <v>165353</v>
+        <v>19504</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>539</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>345269</v>
+        <v>41690</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1870,13 +1870,13 @@
         <v>101635</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
         <v>137</v>
@@ -1885,13 +1885,13 @@
         <v>92187</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>290</v>
@@ -1900,19 +1900,19 @@
         <v>193822</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
@@ -1921,13 +1921,13 @@
         <v>5176</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -1936,13 +1936,13 @@
         <v>3854</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -1951,13 +1951,13 @@
         <v>9030</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1972,13 @@
         <v>106811</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>143</v>
@@ -1987,13 +1987,13 @@
         <v>96041</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>304</v>
@@ -2002,117 +2002,117 @@
         <v>202852</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="D10" s="7">
-        <v>158701</v>
+        <v>169527</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="7">
+        <v>247</v>
+      </c>
+      <c r="I10" s="7">
+        <v>154130</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>505</v>
+      </c>
+      <c r="N10" s="7">
+        <v>323657</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>223</v>
-      </c>
-      <c r="I10" s="7">
-        <v>170613</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>458</v>
-      </c>
-      <c r="N10" s="7">
-        <v>329313</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7">
-        <v>22605</v>
+        <v>10389</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="7">
+        <v>18</v>
+      </c>
+      <c r="I11" s="7">
+        <v>11223</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>34</v>
+      </c>
+      <c r="N11" s="7">
+        <v>21612</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>29</v>
-      </c>
-      <c r="I11" s="7">
-        <v>21930</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>62</v>
-      </c>
-      <c r="N11" s="7">
-        <v>44535</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,150 +2121,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D12" s="7">
-        <v>181306</v>
+        <v>179916</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="I12" s="7">
-        <v>192543</v>
+        <v>165353</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="N12" s="7">
-        <v>373848</v>
+        <v>345269</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="D13" s="7">
-        <v>21431</v>
+        <v>120535</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="7">
+        <v>184</v>
+      </c>
+      <c r="I13" s="7">
+        <v>111227</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>371</v>
+      </c>
+      <c r="N13" s="7">
+        <v>231762</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>24</v>
-      </c>
-      <c r="I13" s="7">
-        <v>18734</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="7">
-        <v>52</v>
-      </c>
-      <c r="N13" s="7">
-        <v>40165</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7">
         <v>20</v>
       </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
       <c r="D14" s="7">
-        <v>755</v>
+        <v>13261</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>23</v>
+      </c>
+      <c r="I14" s="7">
+        <v>13350</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>770</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>43</v>
+      </c>
+      <c r="N14" s="7">
+        <v>26611</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1525</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>83</v>
@@ -2276,49 +2276,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="D15" s="7">
-        <v>22186</v>
+        <v>133796</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="I15" s="7">
-        <v>19504</v>
+        <v>124577</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>414</v>
       </c>
       <c r="N15" s="7">
-        <v>41690</v>
+        <v>258373</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,10 +2329,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="D16" s="7">
-        <v>120535</v>
+        <v>158701</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>85</v>
@@ -2344,10 +2344,10 @@
         <v>87</v>
       </c>
       <c r="H16" s="7">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="I16" s="7">
-        <v>111227</v>
+        <v>170613</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>88</v>
@@ -2359,10 +2359,10 @@
         <v>90</v>
       </c>
       <c r="M16" s="7">
-        <v>371</v>
+        <v>458</v>
       </c>
       <c r="N16" s="7">
-        <v>231762</v>
+        <v>329313</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>91</v>
@@ -2377,13 +2377,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D17" s="7">
-        <v>13261</v>
+        <v>22605</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>94</v>
@@ -2395,10 +2395,10 @@
         <v>96</v>
       </c>
       <c r="H17" s="7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I17" s="7">
-        <v>13350</v>
+        <v>21930</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>97</v>
@@ -2410,10 +2410,10 @@
         <v>99</v>
       </c>
       <c r="M17" s="7">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="N17" s="7">
-        <v>26611</v>
+        <v>44535</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>100</v>
@@ -2431,49 +2431,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="D18" s="7">
-        <v>133796</v>
+        <v>181306</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="I18" s="7">
-        <v>124577</v>
+        <v>192543</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>414</v>
+        <v>520</v>
       </c>
       <c r="N18" s="7">
-        <v>258373</v>
+        <v>373848</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2526,13 @@
         <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>78</v>
@@ -2574,7 +2574,7 @@
         <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>118</v>
@@ -2592,13 +2592,13 @@
         <v>624014</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>892</v>
@@ -2607,13 +2607,13 @@
         <v>598018</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>1831</v>
@@ -2622,13 +2622,13 @@
         <v>1222032</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2649,7 +2649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F376D96C-87B5-40A0-8440-E66E7BFF3DCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D567D23-AF92-47B5-80EB-B0DEDFB55F99}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2767,10 +2767,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>270</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>186517</v>
+        <v>21643</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>120</v>
@@ -2782,85 +2782,85 @@
         <v>122</v>
       </c>
       <c r="H4" s="7">
-        <v>273</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>177065</v>
+        <v>21503</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="7">
+        <v>49</v>
+      </c>
+      <c r="N4" s="7">
+        <v>43146</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M4" s="7">
-        <v>543</v>
-      </c>
-      <c r="N4" s="7">
-        <v>363581</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2811</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>25</v>
-      </c>
-      <c r="D5" s="7">
-        <v>18107</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H5" s="7">
-        <v>21</v>
-      </c>
-      <c r="I5" s="7">
-        <v>13300</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2811</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M5" s="7">
-        <v>46</v>
-      </c>
-      <c r="N5" s="7">
-        <v>31408</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,54 +2869,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>295</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>204624</v>
+        <v>24454</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>294</v>
+        <v>25</v>
       </c>
       <c r="I6" s="7">
-        <v>190365</v>
+        <v>21503</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>589</v>
+        <v>52</v>
       </c>
       <c r="N6" s="7">
-        <v>394989</v>
+        <v>45957</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2928,13 +2928,13 @@
         <v>109688</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H7" s="7">
         <v>131</v>
@@ -2943,13 +2943,13 @@
         <v>94054</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M7" s="7">
         <v>286</v>
@@ -2958,19 +2958,19 @@
         <v>203742</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>17</v>
@@ -2979,13 +2979,13 @@
         <v>11992</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -2994,13 +2994,13 @@
         <v>13541</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -3009,13 +3009,13 @@
         <v>25533</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3030,13 @@
         <v>121680</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>150</v>
@@ -3045,13 +3045,13 @@
         <v>107595</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>322</v>
@@ -3060,117 +3060,117 @@
         <v>229275</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D10" s="7">
-        <v>177443</v>
+        <v>186517</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>273</v>
+      </c>
+      <c r="I10" s="7">
+        <v>177065</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H10" s="7">
-        <v>232</v>
-      </c>
-      <c r="I10" s="7">
-        <v>176347</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>543</v>
+      </c>
+      <c r="N10" s="7">
+        <v>363581</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="M10" s="7">
-        <v>472</v>
-      </c>
-      <c r="N10" s="7">
-        <v>353789</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>23866</v>
+        <v>18107</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>21</v>
+      </c>
+      <c r="I11" s="7">
+        <v>13300</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H11" s="7">
-        <v>33</v>
-      </c>
-      <c r="I11" s="7">
-        <v>25931</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>46</v>
+      </c>
+      <c r="N11" s="7">
+        <v>31408</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="M11" s="7">
-        <v>66</v>
-      </c>
-      <c r="N11" s="7">
-        <v>49797</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,153 +3179,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="D12" s="7">
-        <v>201309</v>
+        <v>204624</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="I12" s="7">
-        <v>202278</v>
+        <v>190365</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>538</v>
+        <v>589</v>
       </c>
       <c r="N12" s="7">
-        <v>403586</v>
+        <v>394989</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="D13" s="7">
-        <v>21643</v>
+        <v>141553</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="7">
+        <v>201</v>
+      </c>
+      <c r="I13" s="7">
+        <v>129726</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M13" s="7">
+        <v>419</v>
+      </c>
+      <c r="N13" s="7">
+        <v>271280</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H13" s="7">
-        <v>25</v>
-      </c>
-      <c r="I13" s="7">
-        <v>21503</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>49</v>
-      </c>
-      <c r="N13" s="7">
-        <v>43146</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7">
         <v>20</v>
       </c>
-      <c r="C14" s="7">
-        <v>3</v>
-      </c>
       <c r="D14" s="7">
-        <v>2811</v>
+        <v>14042</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>20</v>
+      </c>
+      <c r="I14" s="7">
+        <v>12337</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>40</v>
+      </c>
+      <c r="N14" s="7">
+        <v>26378</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2811</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,49 +3334,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="D15" s="7">
-        <v>24454</v>
+        <v>155595</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="I15" s="7">
-        <v>21503</v>
+        <v>142063</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>52</v>
+        <v>459</v>
       </c>
       <c r="N15" s="7">
-        <v>45957</v>
+        <v>297658</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,91 +3387,91 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="D16" s="7">
-        <v>141553</v>
+        <v>177443</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>232</v>
+      </c>
+      <c r="I16" s="7">
+        <v>176347</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H16" s="7">
-        <v>201</v>
-      </c>
-      <c r="I16" s="7">
-        <v>129726</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>472</v>
+      </c>
+      <c r="N16" s="7">
+        <v>353789</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M16" s="7">
-        <v>419</v>
-      </c>
-      <c r="N16" s="7">
-        <v>271280</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D17" s="7">
-        <v>14042</v>
+        <v>23866</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>33</v>
+      </c>
+      <c r="I17" s="7">
+        <v>25931</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H17" s="7">
-        <v>20</v>
-      </c>
-      <c r="I17" s="7">
-        <v>12337</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>199</v>
       </c>
       <c r="M17" s="7">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="N17" s="7">
-        <v>26378</v>
+        <v>49797</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>200</v>
@@ -3489,49 +3489,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="D18" s="7">
-        <v>155595</v>
+        <v>201309</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="I18" s="7">
-        <v>142063</v>
+        <v>202278</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>459</v>
+        <v>538</v>
       </c>
       <c r="N18" s="7">
-        <v>297658</v>
+        <v>403586</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,10 +3563,10 @@
         <v>598696</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>206</v>
@@ -3578,19 +3578,19 @@
         <v>1235538</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>207</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>98</v>
@@ -3614,13 +3614,13 @@
         <v>65108</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>211</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="M20" s="7">
         <v>191</v>
@@ -3629,10 +3629,10 @@
         <v>135927</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>212</v>
@@ -3650,13 +3650,13 @@
         <v>707661</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>955</v>
@@ -3665,13 +3665,13 @@
         <v>663804</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>1960</v>
@@ -3680,13 +3680,13 @@
         <v>1371465</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3707,7 +3707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E90244F-9B0B-47D1-B8A1-2AC14625D5ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C158D8-0A6A-4E94-AE88-9A95191C43F0}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3825,10 +3825,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>282</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>190424</v>
+        <v>24003</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>214</v>
@@ -3837,88 +3837,88 @@
         <v>215</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7">
+        <v>17187</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H4" s="7">
-        <v>287</v>
-      </c>
-      <c r="I4" s="7">
-        <v>178787</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>46</v>
+      </c>
+      <c r="N4" s="7">
+        <v>41190</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="M4" s="7">
-        <v>569</v>
-      </c>
-      <c r="N4" s="7">
-        <v>369211</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1571</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>27</v>
-      </c>
-      <c r="D5" s="7">
-        <v>18306</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3660</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H5" s="7">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7">
-        <v>14531</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>6</v>
+      </c>
+      <c r="N5" s="7">
+        <v>5231</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="M5" s="7">
-        <v>51</v>
-      </c>
-      <c r="N5" s="7">
-        <v>32837</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,54 +3927,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>309</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>208730</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>311</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>193318</v>
+        <v>20847</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>620</v>
+        <v>52</v>
       </c>
       <c r="N6" s="7">
-        <v>402048</v>
+        <v>46421</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3986,13 +3986,13 @@
         <v>98874</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H7" s="7">
         <v>136</v>
@@ -4001,13 +4001,13 @@
         <v>93333</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M7" s="7">
         <v>269</v>
@@ -4016,19 +4016,19 @@
         <v>192207</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>15</v>
@@ -4037,13 +4037,13 @@
         <v>10891</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -4052,13 +4052,13 @@
         <v>8641</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -4067,13 +4067,13 @@
         <v>19532</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4088,13 @@
         <v>109765</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>149</v>
@@ -4103,13 +4103,13 @@
         <v>101974</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>297</v>
@@ -4118,117 +4118,117 @@
         <v>211739</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="D10" s="7">
-        <v>166238</v>
+        <v>190424</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>287</v>
+      </c>
+      <c r="I10" s="7">
+        <v>178787</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H10" s="7">
-        <v>229</v>
-      </c>
-      <c r="I10" s="7">
-        <v>167181</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>569</v>
+      </c>
+      <c r="N10" s="7">
+        <v>369211</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="M10" s="7">
-        <v>462</v>
-      </c>
-      <c r="N10" s="7">
-        <v>333419</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>16101</v>
+        <v>18306</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>24</v>
+      </c>
+      <c r="I11" s="7">
+        <v>14531</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="H11" s="7">
-        <v>27</v>
-      </c>
-      <c r="I11" s="7">
-        <v>21024</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>51</v>
+      </c>
+      <c r="N11" s="7">
+        <v>32837</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="M11" s="7">
-        <v>50</v>
-      </c>
-      <c r="N11" s="7">
-        <v>37125</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,153 +4237,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="D12" s="7">
-        <v>182339</v>
+        <v>208730</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="I12" s="7">
-        <v>188205</v>
+        <v>193318</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>512</v>
+        <v>620</v>
       </c>
       <c r="N12" s="7">
-        <v>370544</v>
+        <v>402048</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="D13" s="7">
-        <v>24003</v>
+        <v>131521</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H13" s="7">
+        <v>207</v>
+      </c>
+      <c r="I13" s="7">
+        <v>123608</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="7">
-        <v>18</v>
-      </c>
-      <c r="I13" s="7">
-        <v>17187</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>405</v>
+      </c>
+      <c r="N13" s="7">
+        <v>255129</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="M13" s="7">
-        <v>46</v>
-      </c>
-      <c r="N13" s="7">
-        <v>41190</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7">
+        <v>16</v>
+      </c>
+      <c r="D14" s="7">
+        <v>11752</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H14" s="7">
         <v>20</v>
       </c>
-      <c r="C14" s="7">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1571</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>12392</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>36</v>
+      </c>
+      <c r="N14" s="7">
+        <v>24144</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3660</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="M14" s="7">
-        <v>6</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5231</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,49 +4392,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>143273</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="I15" s="7">
-        <v>20847</v>
+        <v>136000</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>52</v>
+        <v>441</v>
       </c>
       <c r="N15" s="7">
-        <v>46421</v>
+        <v>279273</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,76 +4445,76 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="D16" s="7">
-        <v>131521</v>
+        <v>166238</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H16" s="7">
+        <v>229</v>
+      </c>
+      <c r="I16" s="7">
+        <v>167181</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H16" s="7">
-        <v>207</v>
-      </c>
-      <c r="I16" s="7">
-        <v>123608</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>462</v>
+      </c>
+      <c r="N16" s="7">
+        <v>333419</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="M16" s="7">
-        <v>405</v>
-      </c>
-      <c r="N16" s="7">
-        <v>255129</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D17" s="7">
-        <v>11752</v>
+        <v>16101</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="H17" s="7">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I17" s="7">
-        <v>12392</v>
+        <v>21024</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>288</v>
@@ -4526,10 +4526,10 @@
         <v>290</v>
       </c>
       <c r="M17" s="7">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="N17" s="7">
-        <v>24144</v>
+        <v>37125</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>291</v>
@@ -4547,49 +4547,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="D18" s="7">
-        <v>143273</v>
+        <v>182339</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="I18" s="7">
-        <v>136000</v>
+        <v>188205</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>441</v>
+        <v>512</v>
       </c>
       <c r="N18" s="7">
-        <v>279273</v>
+        <v>370544</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,7 +4648,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>83</v>
@@ -4708,13 +4708,13 @@
         <v>669680</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>965</v>
@@ -4723,13 +4723,13 @@
         <v>640345</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>1922</v>
@@ -4738,13 +4738,13 @@
         <v>1310025</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4765,7 +4765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FBE3EA-5A1B-4CDF-80A5-87F50AE216C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532D6E06-5CE0-4F5E-A1AD-DA45FC489B27}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4883,100 +4883,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>44916</v>
+        <v>4670</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4563</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="7">
+        <v>13</v>
+      </c>
+      <c r="N4" s="7">
+        <v>9233</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H4" s="7">
-        <v>41</v>
-      </c>
-      <c r="I4" s="7">
-        <v>26730</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M4" s="7">
-        <v>108</v>
-      </c>
-      <c r="N4" s="7">
-        <v>71646</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>320</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>321</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3702</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>322</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>323</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>2365</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>326</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>6067</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>328</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>329</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,54 +4985,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>48618</v>
+        <v>4670</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>29095</v>
+        <v>4563</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>77713</v>
+        <v>9233</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5044,13 +5044,13 @@
         <v>15885</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -5062,10 +5062,10 @@
         <v>295</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -5074,19 +5074,19 @@
         <v>26894</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -5095,10 +5095,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>115</v>
@@ -5113,10 +5113,10 @@
         <v>305</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -5125,13 +5125,13 @@
         <v>1327</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,13 +5146,13 @@
         <v>15885</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -5161,13 +5161,13 @@
         <v>12337</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>48</v>
@@ -5176,117 +5176,117 @@
         <v>28221</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7">
-        <v>26254</v>
+        <v>44916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="H10" s="7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>26258</v>
+        <v>26730</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="M10" s="7">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="N10" s="7">
-        <v>52512</v>
+        <v>71646</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>1147</v>
+        <v>3702</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>2349</v>
+        <v>2365</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N11" s="7">
-        <v>3496</v>
+        <v>6067</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,153 +5295,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>27401</v>
+        <v>48618</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I12" s="7">
-        <v>28607</v>
+        <v>29095</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="N12" s="7">
-        <v>56008</v>
+        <v>77713</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>4670</v>
+        <v>29464</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>343</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>4563</v>
+        <v>24081</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="N13" s="7">
-        <v>9233</v>
+        <v>53545</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>355</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>388</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1240</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1628</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>182</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,49 +5450,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D15" s="7">
-        <v>4670</v>
+        <v>29852</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I15" s="7">
-        <v>4563</v>
+        <v>25321</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="N15" s="7">
-        <v>9233</v>
+        <v>55173</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,97 +5506,97 @@
         <v>39</v>
       </c>
       <c r="D16" s="7">
-        <v>29464</v>
+        <v>26254</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>39</v>
+      </c>
+      <c r="I16" s="7">
+        <v>26258</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M16" s="7">
+        <v>78</v>
+      </c>
+      <c r="N16" s="7">
+        <v>52512</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="7">
-        <v>35</v>
-      </c>
-      <c r="I16" s="7">
-        <v>24081</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M16" s="7">
-        <v>74</v>
-      </c>
-      <c r="N16" s="7">
-        <v>53545</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1147</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
-        <v>388</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="G17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2349</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1240</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3496</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="M17" s="7">
-        <v>3</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1628</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,49 +5605,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="7">
-        <v>29852</v>
+        <v>27401</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I18" s="7">
-        <v>25321</v>
+        <v>28607</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N18" s="7">
-        <v>55173</v>
+        <v>56008</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,7 +5706,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>10</v>
@@ -5766,13 +5766,13 @@
         <v>126425</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>153</v>
@@ -5781,13 +5781,13 @@
         <v>99923</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>341</v>
@@ -5796,13 +5796,13 @@
         <v>226348</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C67D8500-8AFC-4BE5-B134-0429038432DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0070F78-3275-4175-B715-49788EDF299D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1ED29A78-3CE6-4570-8AE0-EC80C6FE8A7A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3B6AB670-4970-44AD-86C5-6D7CD4584DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="392">
   <si>
     <t>Menores según su última visita al médico fue por vacunación en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -71,13 +71,37 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>96,6%</t>
   </si>
   <si>
-    <t>83,16%</t>
+    <t>85,86%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,37 +110,13 @@
     <t>96,05%</t>
   </si>
   <si>
-    <t>80,19%</t>
+    <t>82,58%</t>
   </si>
   <si>
     <t>96,34%</t>
   </si>
   <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
+    <t>87,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -125,1081 +125,1096 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
     <t>95,15%</t>
   </si>
   <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2012 (Tasa respuesta: 93,38%)</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
   </si>
   <si>
     <t>91,92%</t>
   </si>
   <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2015 (Tasa respuesta: 90,4%)</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2012 (Tasa respuesta: 93,38%)</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2015 (Tasa respuesta: 90,4%)</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>95,1%</t>
   </si>
   <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
+    <t>82,87%</t>
   </si>
   <si>
     <t>97,05%</t>
   </si>
   <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
   </si>
   <si>
     <t>95,81%</t>
   </si>
   <si>
-    <t>85,49%</t>
+    <t>84,8%</t>
   </si>
   <si>
     <t>91,79%</t>
   </si>
   <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>93,76%</t>
   </si>
   <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
+    <t>96,55%</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1225,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1306,39 +1321,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1390,7 +1405,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1501,13 +1516,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1516,6 +1524,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1580,19 +1595,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B915C7-A973-46EE-82FC-91661EEB2306}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6074F37-A314-4006-AAE4-4D87FC5B4301}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1709,10 +1744,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>21431</v>
+        <v>755</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1724,34 +1759,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>18734</v>
+        <v>770</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>40165</v>
+        <v>1525</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1760,10 +1795,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>755</v>
+        <v>21431</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1775,34 +1810,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>770</v>
+        <v>18734</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="N5" s="7">
-        <v>1525</v>
+        <v>40165</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,10 +1899,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>101635</v>
+        <v>5176</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>28</v>
@@ -1879,10 +1914,10 @@
         <v>30</v>
       </c>
       <c r="H7" s="7">
-        <v>137</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>92187</v>
+        <v>3854</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>31</v>
@@ -1894,10 +1929,10 @@
         <v>33</v>
       </c>
       <c r="M7" s="7">
-        <v>290</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>193822</v>
+        <v>9030</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>34</v>
@@ -1915,10 +1950,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="D8" s="7">
-        <v>5176</v>
+        <v>101635</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
@@ -1930,10 +1965,10 @@
         <v>39</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="I8" s="7">
-        <v>3854</v>
+        <v>92187</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>40</v>
@@ -1945,10 +1980,10 @@
         <v>42</v>
       </c>
       <c r="M8" s="7">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="N8" s="7">
-        <v>9030</v>
+        <v>193822</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>43</v>
@@ -2019,10 +2054,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>169527</v>
+        <v>10389</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>47</v>
@@ -2034,10 +2069,10 @@
         <v>49</v>
       </c>
       <c r="H10" s="7">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>154130</v>
+        <v>11223</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>50</v>
@@ -2049,10 +2084,10 @@
         <v>52</v>
       </c>
       <c r="M10" s="7">
-        <v>505</v>
+        <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>323657</v>
+        <v>21612</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>53</v>
@@ -2070,10 +2105,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="D11" s="7">
-        <v>10389</v>
+        <v>169527</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>56</v>
@@ -2085,10 +2120,10 @@
         <v>58</v>
       </c>
       <c r="H11" s="7">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="I11" s="7">
-        <v>11223</v>
+        <v>154130</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>59</v>
@@ -2100,10 +2135,10 @@
         <v>61</v>
       </c>
       <c r="M11" s="7">
-        <v>34</v>
+        <v>505</v>
       </c>
       <c r="N11" s="7">
-        <v>21612</v>
+        <v>323657</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>62</v>
@@ -2174,10 +2209,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>120535</v>
+        <v>13261</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>66</v>
@@ -2189,10 +2224,10 @@
         <v>68</v>
       </c>
       <c r="H13" s="7">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>111227</v>
+        <v>13350</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>69</v>
@@ -2204,10 +2239,10 @@
         <v>71</v>
       </c>
       <c r="M13" s="7">
-        <v>371</v>
+        <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>231762</v>
+        <v>26611</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>72</v>
@@ -2225,10 +2260,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="D14" s="7">
-        <v>13261</v>
+        <v>120535</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>75</v>
@@ -2240,10 +2275,10 @@
         <v>77</v>
       </c>
       <c r="H14" s="7">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="I14" s="7">
-        <v>13350</v>
+        <v>111227</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>78</v>
@@ -2255,10 +2290,10 @@
         <v>80</v>
       </c>
       <c r="M14" s="7">
-        <v>43</v>
+        <v>371</v>
       </c>
       <c r="N14" s="7">
-        <v>26611</v>
+        <v>231762</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>81</v>
@@ -2329,10 +2364,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c r="D16" s="7">
-        <v>158701</v>
+        <v>22605</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>85</v>
@@ -2344,10 +2379,10 @@
         <v>87</v>
       </c>
       <c r="H16" s="7">
-        <v>223</v>
+        <v>29</v>
       </c>
       <c r="I16" s="7">
-        <v>170613</v>
+        <v>21930</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>88</v>
@@ -2359,10 +2394,10 @@
         <v>90</v>
       </c>
       <c r="M16" s="7">
-        <v>458</v>
+        <v>62</v>
       </c>
       <c r="N16" s="7">
-        <v>329313</v>
+        <v>44535</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>91</v>
@@ -2380,10 +2415,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="D17" s="7">
-        <v>22605</v>
+        <v>158701</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>94</v>
@@ -2395,10 +2430,10 @@
         <v>96</v>
       </c>
       <c r="H17" s="7">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="I17" s="7">
-        <v>21930</v>
+        <v>170613</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>97</v>
@@ -2410,10 +2445,10 @@
         <v>99</v>
       </c>
       <c r="M17" s="7">
-        <v>62</v>
+        <v>458</v>
       </c>
       <c r="N17" s="7">
-        <v>44535</v>
+        <v>329313</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>100</v>
@@ -2484,10 +2519,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>861</v>
+        <v>78</v>
       </c>
       <c r="D19" s="7">
-        <v>571828</v>
+        <v>52186</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>103</v>
@@ -2499,10 +2534,10 @@
         <v>105</v>
       </c>
       <c r="H19" s="7">
-        <v>815</v>
+        <v>77</v>
       </c>
       <c r="I19" s="7">
-        <v>546891</v>
+        <v>51127</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>106</v>
@@ -2514,10 +2549,10 @@
         <v>108</v>
       </c>
       <c r="M19" s="7">
-        <v>1676</v>
+        <v>155</v>
       </c>
       <c r="N19" s="7">
-        <v>1118719</v>
+        <v>103313</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>109</v>
@@ -2526,7 +2561,7 @@
         <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,49 +2570,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>78</v>
+        <v>861</v>
       </c>
       <c r="D20" s="7">
-        <v>52186</v>
+        <v>571828</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
-        <v>77</v>
+        <v>815</v>
       </c>
       <c r="I20" s="7">
-        <v>51127</v>
+        <v>546891</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
-        <v>155</v>
+        <v>1676</v>
       </c>
       <c r="N20" s="7">
-        <v>103313</v>
+        <v>1118719</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,6 +2664,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2649,8 +2689,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D567D23-AF92-47B5-80EB-B0DEDFB55F99}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3621CD-AA96-4F5D-ABBA-6F3D483BD15B}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2666,7 +2706,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2767,49 +2807,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>21643</v>
+        <v>2811</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>21503</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>43146</v>
+        <v>2811</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,49 +2858,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>2811</v>
+        <v>21643</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>21503</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="N5" s="7">
-        <v>2811</v>
+        <v>43146</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,49 +2962,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>109688</v>
+        <v>11992</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H7" s="7">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7">
-        <v>94054</v>
+        <v>13541</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M7" s="7">
-        <v>286</v>
+        <v>36</v>
       </c>
       <c r="N7" s="7">
-        <v>203742</v>
+        <v>25533</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,49 +3013,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="D8" s="7">
-        <v>11992</v>
+        <v>109688</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H8" s="7">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="I8" s="7">
-        <v>13541</v>
+        <v>94054</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M8" s="7">
-        <v>36</v>
+        <v>286</v>
       </c>
       <c r="N8" s="7">
-        <v>25533</v>
+        <v>203742</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,49 +3117,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>186517</v>
+        <v>18107</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
-        <v>273</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>177065</v>
+        <v>13300</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
-        <v>543</v>
+        <v>46</v>
       </c>
       <c r="N10" s="7">
-        <v>363581</v>
+        <v>31408</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,49 +3168,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="D11" s="7">
-        <v>18107</v>
+        <v>186517</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H11" s="7">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="I11" s="7">
-        <v>13300</v>
+        <v>177065</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M11" s="7">
-        <v>46</v>
+        <v>543</v>
       </c>
       <c r="N11" s="7">
-        <v>31408</v>
+        <v>363581</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>168</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,25 +3272,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>141553</v>
+        <v>14042</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>171</v>
       </c>
       <c r="H13" s="7">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>129726</v>
+        <v>12337</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>172</v>
@@ -3259,22 +3299,22 @@
         <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
-        <v>419</v>
+        <v>40</v>
       </c>
       <c r="N13" s="7">
-        <v>271280</v>
+        <v>26378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,49 +3323,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="D14" s="7">
-        <v>14042</v>
+        <v>141553</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>56</v>
       </c>
       <c r="H14" s="7">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="I14" s="7">
-        <v>12337</v>
+        <v>129726</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
-        <v>40</v>
+        <v>419</v>
       </c>
       <c r="N14" s="7">
-        <v>26378</v>
+        <v>271280</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,49 +3427,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>240</v>
+        <v>33</v>
       </c>
       <c r="D16" s="7">
-        <v>177443</v>
+        <v>23866</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H16" s="7">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="I16" s="7">
-        <v>176347</v>
+        <v>25931</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M16" s="7">
-        <v>472</v>
+        <v>66</v>
       </c>
       <c r="N16" s="7">
-        <v>353789</v>
+        <v>49797</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,49 +3478,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="D17" s="7">
-        <v>23866</v>
+        <v>177443</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="I17" s="7">
-        <v>25931</v>
+        <v>176347</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
-        <v>66</v>
+        <v>472</v>
       </c>
       <c r="N17" s="7">
-        <v>49797</v>
+        <v>353789</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,49 +3582,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>907</v>
+        <v>98</v>
       </c>
       <c r="D19" s="7">
-        <v>636842</v>
+        <v>70819</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H19" s="7">
-        <v>862</v>
+        <v>93</v>
       </c>
       <c r="I19" s="7">
-        <v>598696</v>
+        <v>65108</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
-        <v>1769</v>
+        <v>191</v>
       </c>
       <c r="N19" s="7">
-        <v>1235538</v>
+        <v>135927</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>66</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>87</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,49 +3633,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>98</v>
+        <v>907</v>
       </c>
       <c r="D20" s="7">
-        <v>70819</v>
+        <v>636842</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H20" s="7">
-        <v>93</v>
+        <v>862</v>
       </c>
       <c r="I20" s="7">
-        <v>65108</v>
+        <v>598696</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="M20" s="7">
-        <v>191</v>
+        <v>1769</v>
       </c>
       <c r="N20" s="7">
-        <v>135927</v>
+        <v>1235539</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>75</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,7 +3717,7 @@
         <v>1960</v>
       </c>
       <c r="N21" s="7">
-        <v>1371465</v>
+        <v>1371466</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -3687,6 +3727,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3707,8 +3752,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C158D8-0A6A-4E94-AE88-9A95191C43F0}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F698D2-C591-434D-ACBE-09B61EDFE378}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3724,7 +3769,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3825,49 +3870,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1571</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3660</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="7">
-        <v>24003</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>18</v>
-      </c>
-      <c r="I4" s="7">
-        <v>17187</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>41190</v>
+        <v>5231</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,49 +3921,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>1571</v>
+        <v>24003</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>223</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>3660</v>
+        <v>17187</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>226</v>
+        <v>37</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="N5" s="7">
-        <v>5231</v>
+        <v>41190</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,49 +4025,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>98874</v>
+        <v>10891</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H7" s="7">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>93333</v>
+        <v>8641</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
-        <v>269</v>
+        <v>28</v>
       </c>
       <c r="N7" s="7">
-        <v>192207</v>
+        <v>19532</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>53</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,49 +4076,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="D8" s="7">
-        <v>10891</v>
+        <v>98874</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="I8" s="7">
-        <v>8641</v>
+        <v>93333</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
-        <v>28</v>
+        <v>269</v>
       </c>
       <c r="N8" s="7">
-        <v>19532</v>
+        <v>192207</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>62</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,49 +4180,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>282</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>190424</v>
+        <v>18306</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="H10" s="7">
-        <v>287</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>178787</v>
+        <v>14531</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
-        <v>569</v>
+        <v>51</v>
       </c>
       <c r="N10" s="7">
-        <v>369211</v>
+        <v>32837</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>251</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,49 +4231,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>27</v>
+        <v>282</v>
       </c>
       <c r="D11" s="7">
-        <v>18306</v>
+        <v>190424</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>287</v>
       </c>
       <c r="I11" s="7">
-        <v>14531</v>
+        <v>178787</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
-        <v>51</v>
+        <v>569</v>
       </c>
       <c r="N11" s="7">
-        <v>32837</v>
+        <v>369211</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>261</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,49 +4335,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>131521</v>
+        <v>11752</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>123608</v>
+        <v>12392</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
-        <v>405</v>
+        <v>36</v>
       </c>
       <c r="N13" s="7">
-        <v>255129</v>
+        <v>24144</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,49 +4386,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="D14" s="7">
-        <v>11752</v>
+        <v>131521</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="I14" s="7">
-        <v>12392</v>
+        <v>123608</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
-        <v>36</v>
+        <v>405</v>
       </c>
       <c r="N14" s="7">
-        <v>24144</v>
+        <v>255129</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,49 +4490,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>166238</v>
+        <v>16101</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
-        <v>229</v>
+        <v>27</v>
       </c>
       <c r="I16" s="7">
-        <v>167181</v>
+        <v>21024</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
-        <v>462</v>
+        <v>50</v>
       </c>
       <c r="N16" s="7">
-        <v>333419</v>
+        <v>37125</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,49 +4541,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="D17" s="7">
-        <v>16101</v>
+        <v>166238</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H17" s="7">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="I17" s="7">
-        <v>21024</v>
+        <v>167181</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
-        <v>50</v>
+        <v>462</v>
       </c>
       <c r="N17" s="7">
-        <v>37125</v>
+        <v>333419</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>198</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,49 +4645,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>874</v>
+        <v>83</v>
       </c>
       <c r="D19" s="7">
-        <v>611059</v>
+        <v>58621</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H19" s="7">
-        <v>877</v>
+        <v>88</v>
       </c>
       <c r="I19" s="7">
-        <v>580097</v>
+        <v>60248</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M19" s="7">
-        <v>1751</v>
+        <v>171</v>
       </c>
       <c r="N19" s="7">
-        <v>1191156</v>
+        <v>118869</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,49 +4696,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>83</v>
+        <v>874</v>
       </c>
       <c r="D20" s="7">
-        <v>58621</v>
+        <v>611059</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
-        <v>88</v>
+        <v>877</v>
       </c>
       <c r="I20" s="7">
-        <v>60248</v>
+        <v>580097</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="M20" s="7">
-        <v>171</v>
+        <v>1751</v>
       </c>
       <c r="N20" s="7">
-        <v>118869</v>
+        <v>1191156</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,6 +4790,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4765,8 +4815,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532D6E06-5CE0-4F5E-A1AD-DA45FC489B27}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C289826-D731-4B20-AE05-8E01409B5D1C}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4782,7 +4832,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4883,49 +4933,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4670</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>313</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>26</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>4563</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>314</v>
+        <v>126</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>26</v>
+        <v>317</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>9233</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>315</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>26</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,49 +4984,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4670</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>319</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>4563</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>9233</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>321</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>318</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,49 +5088,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>15885</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>26</v>
+        <v>322</v>
       </c>
       <c r="H7" s="7">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>11010</v>
+        <v>1327</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>324</v>
       </c>
       <c r="M7" s="7">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>26894</v>
+        <v>1327</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>320</v>
+        <v>239</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>321</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,49 +5139,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>15885</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I8" s="7">
-        <v>1327</v>
+        <v>11010</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>328</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>322</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="N8" s="7">
-        <v>1327</v>
+        <v>26894</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>323</v>
+        <v>249</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>329</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>324</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,49 +5243,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>44916</v>
+        <v>3702</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H10" s="7">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>26730</v>
+        <v>2365</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>71646</v>
+        <v>6067</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,49 +5294,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="D11" s="7">
-        <v>3702</v>
+        <v>44916</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="I11" s="7">
-        <v>2365</v>
+        <v>26730</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="N11" s="7">
-        <v>6067</v>
+        <v>71646</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,49 +5398,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>29464</v>
+        <v>388</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>344</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>349</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>24081</v>
+        <v>1240</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>350</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>345</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>351</v>
       </c>
       <c r="M13" s="7">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>53545</v>
+        <v>1628</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>347</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,49 +5449,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D14" s="7">
-        <v>388</v>
+        <v>29464</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>355</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>349</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="I14" s="7">
-        <v>1240</v>
+        <v>24081</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>356</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>357</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>350</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="N14" s="7">
-        <v>1628</v>
+        <v>53545</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,49 +5553,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>26254</v>
+        <v>1147</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>354</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>361</v>
       </c>
       <c r="H16" s="7">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>26258</v>
+        <v>2349</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="M16" s="7">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>52512</v>
+        <v>3496</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,49 +5604,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7">
-        <v>1147</v>
+        <v>26254</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>362</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="I17" s="7">
-        <v>2349</v>
+        <v>26258</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="N17" s="7">
-        <v>3496</v>
+        <v>52512</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,49 +5708,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>121187</v>
+        <v>5238</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="H19" s="7">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>92643</v>
+        <v>7280</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="M19" s="7">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="N19" s="7">
-        <v>213830</v>
+        <v>12518</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>377</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,49 +5759,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="D20" s="7">
-        <v>5238</v>
+        <v>121187</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="H20" s="7">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I20" s="7">
-        <v>7280</v>
+        <v>92643</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M20" s="7">
-        <v>22</v>
+        <v>319</v>
       </c>
       <c r="N20" s="7">
-        <v>12518</v>
+        <v>213830</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>385</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,6 +5853,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A01-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0070F78-3275-4175-B715-49788EDF299D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{197DB898-DE0D-45AF-B6DD-595D8C2722AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3B6AB670-4970-44AD-86C5-6D7CD4584DE7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{858F4B8A-D622-4F0A-802F-7463140C7E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="396">
   <si>
     <t>Menores según su última visita al médico fue por vacunación en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,19 +80,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>14,14%</t>
+    <t>18,7%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>17,42%</t>
+    <t>21,78%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>12,7%</t>
+    <t>11,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>96,6%</t>
   </si>
   <si>
-    <t>85,86%</t>
+    <t>81,3%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,1111 +110,1123 @@
     <t>96,05%</t>
   </si>
   <si>
-    <t>82,58%</t>
+    <t>78,22%</t>
   </si>
   <si>
     <t>96,34%</t>
   </si>
   <si>
-    <t>87,3%</t>
+    <t>88,89%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
   </si>
   <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
+    <t>8,57%</t>
   </si>
   <si>
     <t>94,23%</t>
   </si>
   <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
   </si>
   <si>
     <t>93,21%</t>
   </si>
   <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
   </si>
   <si>
     <t>93,74%</t>
   </si>
   <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2012 (Tasa respuesta: 93,38%)</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
     <t>6,12%</t>
   </si>
   <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
   </si>
   <si>
     <t>6,6%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2016 (Tasa respuesta: 90,4%)</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>92,2%</t>
   </si>
   <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2012 (Tasa respuesta: 93,38%)</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2015 (Tasa respuesta: 90,4%)</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>98,0%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>96,55%</t>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6074F37-A314-4006-AAE4-4D87FC5B4301}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2DE8A4-A281-43DD-B8B5-92D14CA78A0E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2093,10 +2105,10 @@
         <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,13 +2123,13 @@
         <v>169527</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>247</v>
@@ -2126,13 +2138,13 @@
         <v>154130</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>505</v>
@@ -2141,13 +2153,13 @@
         <v>323657</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,7 +2215,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2215,13 +2227,13 @@
         <v>13261</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -2230,13 +2242,13 @@
         <v>13350</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -2245,13 +2257,13 @@
         <v>26611</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,13 +2278,13 @@
         <v>120535</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>184</v>
@@ -2281,13 +2293,13 @@
         <v>111227</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>371</v>
@@ -2296,13 +2308,13 @@
         <v>231762</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,7 +2370,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2370,13 +2382,13 @@
         <v>22605</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -2385,13 +2397,13 @@
         <v>21930</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -2400,13 +2412,13 @@
         <v>44535</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,13 +2433,13 @@
         <v>158701</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>223</v>
@@ -2436,13 +2448,13 @@
         <v>170613</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>458</v>
@@ -2451,13 +2463,13 @@
         <v>329313</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2525,13 +2537,13 @@
         <v>52186</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
@@ -2540,13 +2552,13 @@
         <v>51127</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>155</v>
@@ -2555,13 +2567,13 @@
         <v>103313</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,13 +2588,13 @@
         <v>571828</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>815</v>
@@ -2591,13 +2603,13 @@
         <v>546891</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>1676</v>
@@ -2606,13 +2618,13 @@
         <v>1118719</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,7 +2680,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2689,7 +2701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3621CD-AA96-4F5D-ABBA-6F3D483BD15B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDF48D0-8592-47AA-9E4A-EB05F90934D7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2706,7 +2718,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2813,13 +2825,13 @@
         <v>2811</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2831,10 +2843,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2843,13 +2855,13 @@
         <v>2811</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,13 +2876,13 @@
         <v>21643</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -2882,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -2894,13 +2906,13 @@
         <v>43146</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +2980,13 @@
         <v>11992</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -2983,13 +2995,13 @@
         <v>13541</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -2998,13 +3010,13 @@
         <v>25533</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3031,13 @@
         <v>109688</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H8" s="7">
         <v>131</v>
@@ -3034,13 +3046,13 @@
         <v>94054</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M8" s="7">
         <v>286</v>
@@ -3049,13 +3061,13 @@
         <v>203742</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,13 +3135,13 @@
         <v>18107</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3138,13 +3150,13 @@
         <v>13300</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>46</v>
@@ -3153,13 +3165,13 @@
         <v>31408</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,13 +3186,13 @@
         <v>186517</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H11" s="7">
         <v>273</v>
@@ -3189,13 +3201,13 @@
         <v>177065</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M11" s="7">
         <v>543</v>
@@ -3204,7 +3216,7 @@
         <v>363581</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>168</v>
@@ -3266,7 +3278,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3281,10 +3293,10 @@
         <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3332,10 +3344,10 @@
         <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H14" s="7">
         <v>201</v>
@@ -3421,7 +3433,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3466,10 +3478,10 @@
         <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3496,13 @@
         <v>177443</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>232</v>
@@ -3499,13 +3511,13 @@
         <v>176347</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>472</v>
@@ -3514,13 +3526,13 @@
         <v>353789</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,13 +3600,13 @@
         <v>70819</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -3603,13 +3615,13 @@
         <v>65108</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M19" s="7">
         <v>191</v>
@@ -3618,13 +3630,13 @@
         <v>135927</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3651,13 @@
         <v>636842</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="H20" s="7">
         <v>862</v>
@@ -3654,28 +3666,28 @@
         <v>598696</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M20" s="7">
         <v>1769</v>
       </c>
       <c r="N20" s="7">
-        <v>1235539</v>
+        <v>1235538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,7 +3729,7 @@
         <v>1960</v>
       </c>
       <c r="N21" s="7">
-        <v>1371466</v>
+        <v>1371465</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -3731,7 +3743,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3752,7 +3764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F698D2-C591-434D-ACBE-09B61EDFE378}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8678B417-9205-459B-9FB5-BB64D8EDB3B2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3769,7 +3781,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3876,13 +3888,13 @@
         <v>1571</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3891,13 +3903,13 @@
         <v>3660</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3906,13 +3918,13 @@
         <v>5231</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,10 +3939,10 @@
         <v>24003</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3942,13 +3954,13 @@
         <v>17187</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -3957,13 +3969,13 @@
         <v>41190</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4043,13 @@
         <v>10891</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -4046,13 +4058,13 @@
         <v>8641</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -4061,13 +4073,13 @@
         <v>19532</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4094,13 @@
         <v>98874</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H8" s="7">
         <v>136</v>
@@ -4097,13 +4109,13 @@
         <v>93333</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>269</v>
@@ -4112,13 +4124,13 @@
         <v>192207</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4198,13 @@
         <v>18306</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -4201,13 +4213,13 @@
         <v>14531</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -4216,13 +4228,13 @@
         <v>32837</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,10 +4267,10 @@
         <v>262</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M11" s="7">
         <v>569</v>
@@ -4267,13 +4279,13 @@
         <v>369211</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>266</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,7 +4341,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4341,13 +4353,13 @@
         <v>11752</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -4356,13 +4368,13 @@
         <v>12392</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4371,13 +4383,13 @@
         <v>24144</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4404,13 @@
         <v>131521</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>207</v>
@@ -4407,13 +4419,13 @@
         <v>123608</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>405</v>
@@ -4422,13 +4434,13 @@
         <v>255129</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,7 +4496,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4496,13 +4508,13 @@
         <v>16101</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -4511,13 +4523,13 @@
         <v>21024</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -4526,13 +4538,13 @@
         <v>37125</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>189</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,13 +4559,13 @@
         <v>166238</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H17" s="7">
         <v>229</v>
@@ -4562,13 +4574,13 @@
         <v>167181</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M17" s="7">
         <v>462</v>
@@ -4577,13 +4589,13 @@
         <v>333419</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>198</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,13 +4663,13 @@
         <v>58621</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>301</v>
+        <v>67</v>
       </c>
       <c r="H19" s="7">
         <v>88</v>
@@ -4666,13 +4678,13 @@
         <v>60248</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M19" s="7">
         <v>171</v>
@@ -4681,13 +4693,13 @@
         <v>118869</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,13 +4714,13 @@
         <v>611059</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>877</v>
@@ -4717,13 +4729,13 @@
         <v>580097</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>1751</v>
@@ -4732,13 +4744,13 @@
         <v>1191156</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,7 +4806,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4815,7 +4827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C289826-D731-4B20-AE05-8E01409B5D1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D869ECD-3F51-4201-9648-C1262747DEDA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4832,7 +4844,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4942,10 +4954,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4957,10 +4969,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4972,10 +4984,10 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,7 +5005,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -5008,7 +5020,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -5023,7 +5035,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -5097,10 +5109,10 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5109,13 +5121,13 @@
         <v>1327</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5124,13 +5136,13 @@
         <v>1327</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>239</v>
+        <v>329</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,7 +5160,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -5160,10 +5172,10 @@
         <v>11010</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -5175,10 +5187,10 @@
         <v>26894</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>334</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -5249,13 +5261,13 @@
         <v>3702</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5264,13 +5276,13 @@
         <v>2365</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>333</v>
+        <v>33</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -5279,13 +5291,13 @@
         <v>6067</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,13 +5312,13 @@
         <v>44916</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H11" s="7">
         <v>41</v>
@@ -5315,13 +5327,13 @@
         <v>26730</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>342</v>
+        <v>41</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M11" s="7">
         <v>108</v>
@@ -5330,13 +5342,13 @@
         <v>71646</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,7 +5404,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5404,13 +5416,13 @@
         <v>388</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>349</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5419,13 +5431,13 @@
         <v>1240</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -5434,13 +5446,13 @@
         <v>1628</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,10 +5467,10 @@
         <v>29464</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>355</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -5470,10 +5482,10 @@
         <v>24081</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -5485,13 +5497,13 @@
         <v>53545</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,7 +5559,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5559,13 +5571,13 @@
         <v>1147</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5574,13 +5586,13 @@
         <v>2349</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -5589,13 +5601,13 @@
         <v>3496</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,10 +5622,10 @@
         <v>26254</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -5625,13 +5637,13 @@
         <v>26258</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M17" s="7">
         <v>78</v>
@@ -5640,13 +5652,13 @@
         <v>52512</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,13 +5726,13 @@
         <v>5238</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -5729,13 +5741,13 @@
         <v>7280</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -5744,13 +5756,13 @@
         <v>12518</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,13 +5777,13 @@
         <v>121187</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H20" s="7">
         <v>141</v>
@@ -5780,13 +5792,13 @@
         <v>92643</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M20" s="7">
         <v>319</v>
@@ -5795,13 +5807,13 @@
         <v>213830</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>394</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,7 +5869,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18A01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{197DB898-DE0D-45AF-B6DD-595D8C2722AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77165E6D-DB64-4CF7-B00B-573695E2BFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{858F4B8A-D622-4F0A-802F-7463140C7E5F}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{E531BF87-E1EC-47F6-B23D-19622731CB1F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="341">
   <si>
     <t>Menores según su última visita al médico fue por vacunación en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1165 +68,1000 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>3,4%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2012 (Tasa respuesta: 93,38%)</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2016 (Tasa respuesta: 90,4%)</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2023 (Tasa respuesta: 17,76%)</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2012 (Tasa respuesta: 93,38%)</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2016 (Tasa respuesta: 90,4%)</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
   </si>
 </sst>
 </file>
@@ -1638,8 +1473,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2DE8A4-A281-43DD-B8B5-92D14CA78A0E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDE1F4B-B15E-445D-8AAE-DDD28607EF67}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1756,10 +1591,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>755</v>
+        <v>4624</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1771,85 +1606,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>770</v>
+        <v>5931</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>1525</v>
+        <v>10554</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>161</v>
+      </c>
+      <c r="D5" s="7">
+        <v>110921</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>181</v>
+      </c>
+      <c r="I5" s="7">
+        <v>123066</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
+        <v>342</v>
+      </c>
+      <c r="N5" s="7">
+        <v>233988</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="7">
-        <v>21431</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7">
-        <v>18734</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="7">
-        <v>52</v>
-      </c>
-      <c r="N5" s="7">
-        <v>40165</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,153 +1693,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D6" s="7">
-        <v>22186</v>
+        <v>115545</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="I6" s="7">
-        <v>19504</v>
+        <v>128997</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>358</v>
       </c>
       <c r="N6" s="7">
-        <v>41690</v>
+        <v>244542</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>5176</v>
+        <v>11223</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>3854</v>
+        <v>10389</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="N7" s="7">
-        <v>9030</v>
+        <v>21612</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="D8" s="7">
-        <v>101635</v>
+        <v>154130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>137</v>
+        <v>258</v>
       </c>
       <c r="I8" s="7">
-        <v>92187</v>
+        <v>169527</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>290</v>
+        <v>505</v>
       </c>
       <c r="N8" s="7">
-        <v>193822</v>
+        <v>323657</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,153 +1848,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="D9" s="7">
-        <v>106811</v>
+        <v>165353</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>143</v>
+        <v>274</v>
       </c>
       <c r="I9" s="7">
-        <v>96041</v>
+        <v>179916</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>304</v>
+        <v>539</v>
       </c>
       <c r="N9" s="7">
-        <v>202852</v>
+        <v>345269</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>10389</v>
+        <v>13350</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>11223</v>
+        <v>13261</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>21612</v>
+        <v>26611</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="D11" s="7">
-        <v>169527</v>
+        <v>111227</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="I11" s="7">
-        <v>154130</v>
+        <v>120535</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>505</v>
+        <v>371</v>
       </c>
       <c r="N11" s="7">
-        <v>323657</v>
+        <v>231762</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,153 +2003,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="D12" s="7">
-        <v>179916</v>
+        <v>124577</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="I12" s="7">
-        <v>165353</v>
+        <v>133796</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>539</v>
+        <v>414</v>
       </c>
       <c r="N12" s="7">
-        <v>345269</v>
+        <v>258373</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>13261</v>
+        <v>21930</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>13350</v>
+        <v>22605</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="N13" s="7">
-        <v>26611</v>
+        <v>44535</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="D14" s="7">
-        <v>120535</v>
+        <v>170613</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="I14" s="7">
-        <v>111227</v>
+        <v>158701</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>371</v>
+        <v>458</v>
       </c>
       <c r="N14" s="7">
-        <v>231762</v>
+        <v>329313</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,153 +2158,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="D15" s="7">
-        <v>133796</v>
+        <v>192543</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="I15" s="7">
-        <v>124577</v>
+        <v>181306</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>414</v>
+        <v>520</v>
       </c>
       <c r="N15" s="7">
-        <v>258373</v>
+        <v>373848</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7">
-        <v>22605</v>
+        <v>51127</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="I16" s="7">
-        <v>21930</v>
+        <v>52186</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="N16" s="7">
-        <v>44535</v>
+        <v>103313</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>235</v>
+        <v>815</v>
       </c>
       <c r="D17" s="7">
-        <v>158701</v>
+        <v>546891</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>223</v>
+        <v>861</v>
       </c>
       <c r="I17" s="7">
-        <v>170613</v>
+        <v>571828</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>458</v>
+        <v>1676</v>
       </c>
       <c r="N17" s="7">
-        <v>329313</v>
+        <v>1118719</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,217 +2313,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>268</v>
+        <v>892</v>
       </c>
       <c r="D18" s="7">
-        <v>181306</v>
+        <v>598018</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>252</v>
+        <v>939</v>
       </c>
       <c r="I18" s="7">
-        <v>192543</v>
+        <v>624014</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>520</v>
+        <v>1831</v>
       </c>
       <c r="N18" s="7">
-        <v>373848</v>
+        <v>1222032</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>78</v>
-      </c>
-      <c r="D19" s="7">
-        <v>52186</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="7">
-        <v>77</v>
-      </c>
-      <c r="I19" s="7">
-        <v>51127</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="M19" s="7">
-        <v>155</v>
-      </c>
-      <c r="N19" s="7">
-        <v>103313</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>861</v>
-      </c>
-      <c r="D20" s="7">
-        <v>571828</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="7">
-        <v>815</v>
-      </c>
-      <c r="I20" s="7">
-        <v>546891</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1676</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1118719</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>939</v>
-      </c>
-      <c r="D21" s="7">
-        <v>624014</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>892</v>
-      </c>
-      <c r="I21" s="7">
-        <v>598018</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1831</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1222032</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2701,8 +2380,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDF48D0-8592-47AA-9E4A-EB05F90934D7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA2C66-18AA-40EC-9A0E-09CDDBC8E8B5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2718,7 +2397,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2819,100 +2498,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>2811</v>
+        <v>13541</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>14804</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="N4" s="7">
-        <v>2811</v>
+        <v>28345</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="D5" s="7">
-        <v>21643</v>
+        <v>115557</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="I5" s="7">
-        <v>21503</v>
+        <v>131330</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="M5" s="7">
-        <v>49</v>
+        <v>335</v>
       </c>
       <c r="N5" s="7">
-        <v>43146</v>
+        <v>246887</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,153 +2600,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="D6" s="7">
-        <v>24454</v>
+        <v>129098</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="I6" s="7">
-        <v>21503</v>
+        <v>146134</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>52</v>
+        <v>374</v>
       </c>
       <c r="N6" s="7">
-        <v>45957</v>
+        <v>275232</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>11992</v>
+        <v>13300</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I7" s="7">
-        <v>13541</v>
+        <v>18107</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N7" s="7">
-        <v>25533</v>
+        <v>31408</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>155</v>
+        <v>273</v>
       </c>
       <c r="D8" s="7">
-        <v>109688</v>
+        <v>177065</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
-        <v>131</v>
+        <v>270</v>
       </c>
       <c r="I8" s="7">
-        <v>94054</v>
+        <v>186517</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
-        <v>286</v>
+        <v>543</v>
       </c>
       <c r="N8" s="7">
-        <v>203742</v>
+        <v>363581</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,153 +2755,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>172</v>
+        <v>294</v>
       </c>
       <c r="D9" s="7">
-        <v>121680</v>
+        <v>190365</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="I9" s="7">
-        <v>107595</v>
+        <v>204624</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>322</v>
+        <v>589</v>
       </c>
       <c r="N9" s="7">
-        <v>229275</v>
+        <v>394989</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>18107</v>
+        <v>12337</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>13300</v>
+        <v>14042</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="N10" s="7">
-        <v>31408</v>
+        <v>26378</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>270</v>
+        <v>201</v>
       </c>
       <c r="D11" s="7">
-        <v>186517</v>
+        <v>129726</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="H11" s="7">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="I11" s="7">
-        <v>177065</v>
+        <v>141553</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="M11" s="7">
-        <v>543</v>
+        <v>419</v>
       </c>
       <c r="N11" s="7">
-        <v>363581</v>
+        <v>271280</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,153 +2910,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>295</v>
+        <v>221</v>
       </c>
       <c r="D12" s="7">
-        <v>204624</v>
+        <v>142063</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>294</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>190365</v>
+        <v>155595</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>589</v>
+        <v>459</v>
       </c>
       <c r="N12" s="7">
-        <v>394989</v>
+        <v>297658</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>14042</v>
+        <v>25931</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>12337</v>
+        <v>23866</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="N13" s="7">
-        <v>26378</v>
+        <v>49797</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="D14" s="7">
-        <v>141553</v>
+        <v>176347</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="I14" s="7">
-        <v>129726</v>
+        <v>177443</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="N14" s="7">
-        <v>271280</v>
+        <v>353789</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,153 +3065,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="D15" s="7">
-        <v>155595</v>
+        <v>202278</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="I15" s="7">
-        <v>142063</v>
+        <v>201309</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>459</v>
+        <v>538</v>
       </c>
       <c r="N15" s="7">
-        <v>297658</v>
+        <v>403586</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D16" s="7">
-        <v>23866</v>
+        <v>65108</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="H16" s="7">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="I16" s="7">
-        <v>25931</v>
+        <v>70819</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" s="7">
         <v>191</v>
       </c>
-      <c r="M16" s="7">
-        <v>66</v>
-      </c>
       <c r="N16" s="7">
-        <v>49797</v>
+        <v>135927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>240</v>
+        <v>862</v>
       </c>
       <c r="D17" s="7">
-        <v>177443</v>
+        <v>598696</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="H17" s="7">
-        <v>232</v>
+        <v>907</v>
       </c>
       <c r="I17" s="7">
-        <v>176347</v>
+        <v>636842</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="M17" s="7">
-        <v>472</v>
+        <v>1769</v>
       </c>
       <c r="N17" s="7">
-        <v>353789</v>
+        <v>1235538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,217 +3220,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>273</v>
+        <v>955</v>
       </c>
       <c r="D18" s="7">
-        <v>201309</v>
+        <v>663804</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>265</v>
+        <v>1005</v>
       </c>
       <c r="I18" s="7">
-        <v>202278</v>
+        <v>707661</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>538</v>
+        <v>1960</v>
       </c>
       <c r="N18" s="7">
-        <v>403586</v>
+        <v>1371465</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>98</v>
-      </c>
-      <c r="D19" s="7">
-        <v>70819</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H19" s="7">
-        <v>93</v>
-      </c>
-      <c r="I19" s="7">
-        <v>65108</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M19" s="7">
-        <v>191</v>
-      </c>
-      <c r="N19" s="7">
-        <v>135927</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>907</v>
-      </c>
-      <c r="D20" s="7">
-        <v>636842</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="7">
-        <v>862</v>
-      </c>
-      <c r="I20" s="7">
-        <v>598696</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1769</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1235538</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1005</v>
-      </c>
-      <c r="D21" s="7">
-        <v>707661</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>955</v>
-      </c>
-      <c r="I21" s="7">
-        <v>663804</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1960</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1371465</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3764,8 +3287,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8678B417-9205-459B-9FB5-BB64D8EDB3B2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC1983E-BB9F-450A-ACCC-6968976D9C39}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3781,7 +3304,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3882,100 +3405,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>1571</v>
+        <v>12301</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>3660</v>
+        <v>12462</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N4" s="7">
-        <v>5231</v>
+        <v>24763</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="D5" s="7">
-        <v>24003</v>
+        <v>110520</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="H5" s="7">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="I5" s="7">
-        <v>17187</v>
+        <v>122877</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="M5" s="7">
-        <v>46</v>
+        <v>315</v>
       </c>
       <c r="N5" s="7">
-        <v>41190</v>
+        <v>233397</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,153 +3507,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>122821</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="I6" s="7">
-        <v>20847</v>
+        <v>135339</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>52</v>
+        <v>349</v>
       </c>
       <c r="N6" s="7">
-        <v>46421</v>
+        <v>258160</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>10891</v>
+        <v>14531</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>8641</v>
+        <v>18306</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="N7" s="7">
-        <v>19532</v>
+        <v>32837</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>133</v>
+        <v>287</v>
       </c>
       <c r="D8" s="7">
-        <v>98874</v>
+        <v>178787</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="H8" s="7">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="I8" s="7">
-        <v>93333</v>
+        <v>190424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
-        <v>269</v>
+        <v>569</v>
       </c>
       <c r="N8" s="7">
-        <v>192207</v>
+        <v>369211</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,153 +3662,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="D9" s="7">
-        <v>109765</v>
+        <v>193318</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>149</v>
+        <v>309</v>
       </c>
       <c r="I9" s="7">
-        <v>101974</v>
+        <v>208730</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>297</v>
+        <v>620</v>
       </c>
       <c r="N9" s="7">
-        <v>211739</v>
+        <v>402048</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>18306</v>
+        <v>12392</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>14531</v>
+        <v>11752</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>32837</v>
+        <v>24144</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c r="D11" s="7">
-        <v>190424</v>
+        <v>123608</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
-        <v>287</v>
+        <v>198</v>
       </c>
       <c r="I11" s="7">
-        <v>178787</v>
+        <v>131521</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
-        <v>569</v>
+        <v>405</v>
       </c>
       <c r="N11" s="7">
-        <v>369211</v>
+        <v>255129</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,153 +3817,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>309</v>
+        <v>227</v>
       </c>
       <c r="D12" s="7">
-        <v>208730</v>
+        <v>136000</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>311</v>
+        <v>214</v>
       </c>
       <c r="I12" s="7">
-        <v>193318</v>
+        <v>143273</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>620</v>
+        <v>441</v>
       </c>
       <c r="N12" s="7">
-        <v>402048</v>
+        <v>279273</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>11752</v>
+        <v>21024</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>12392</v>
+        <v>16101</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="N13" s="7">
-        <v>24144</v>
+        <v>37125</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="D14" s="7">
-        <v>131521</v>
+        <v>167181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="I14" s="7">
-        <v>123608</v>
+        <v>166238</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="N14" s="7">
-        <v>255129</v>
+        <v>333419</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,153 +3972,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="D15" s="7">
-        <v>143273</v>
+        <v>188205</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="I15" s="7">
-        <v>136000</v>
+        <v>182339</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>441</v>
+        <v>512</v>
       </c>
       <c r="N15" s="7">
-        <v>279273</v>
+        <v>370544</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="D16" s="7">
-        <v>16101</v>
+        <v>60248</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="H16" s="7">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I16" s="7">
-        <v>21024</v>
+        <v>58621</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="M16" s="7">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="N16" s="7">
-        <v>37125</v>
+        <v>118869</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>233</v>
+        <v>877</v>
       </c>
       <c r="D17" s="7">
-        <v>166238</v>
+        <v>580097</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="H17" s="7">
-        <v>229</v>
+        <v>874</v>
       </c>
       <c r="I17" s="7">
-        <v>167181</v>
+        <v>611060</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
-        <v>462</v>
+        <v>1751</v>
       </c>
       <c r="N17" s="7">
-        <v>333419</v>
+        <v>1191156</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,217 +4127,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>256</v>
+        <v>965</v>
       </c>
       <c r="D18" s="7">
-        <v>182339</v>
+        <v>640345</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>256</v>
+        <v>957</v>
       </c>
       <c r="I18" s="7">
-        <v>188205</v>
+        <v>669681</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>512</v>
+        <v>1922</v>
       </c>
       <c r="N18" s="7">
-        <v>370544</v>
+        <v>1310025</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>83</v>
-      </c>
-      <c r="D19" s="7">
-        <v>58621</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="7">
-        <v>88</v>
-      </c>
-      <c r="I19" s="7">
-        <v>60248</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="M19" s="7">
-        <v>171</v>
-      </c>
-      <c r="N19" s="7">
-        <v>118869</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>874</v>
-      </c>
-      <c r="D20" s="7">
-        <v>611059</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H20" s="7">
-        <v>877</v>
-      </c>
-      <c r="I20" s="7">
-        <v>580097</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1751</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1191156</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>957</v>
-      </c>
-      <c r="D21" s="7">
-        <v>669680</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>965</v>
-      </c>
-      <c r="I21" s="7">
-        <v>640345</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1922</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1310025</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4827,8 +4194,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D869ECD-3F51-4201-9648-C1262747DEDA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB1BBB9-0A21-45BE-AFA2-2B7C152BF65E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4844,7 +4211,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4945,19 +4312,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1283</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4966,79 +4333,79 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>124</v>
+        <v>270</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1283</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>124</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>4670</v>
+        <v>15771</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I5" s="7">
-        <v>4563</v>
+        <v>21666</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>275</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="N5" s="7">
-        <v>9233</v>
+        <v>37437</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>277</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,153 +4414,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>4670</v>
+        <v>17054</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I6" s="7">
-        <v>4563</v>
+        <v>21666</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="N6" s="7">
-        <v>9233</v>
+        <v>38720</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>2341</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7" s="7">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3761</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M7" s="7">
         <v>12</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1327</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M7" s="7">
-        <v>2</v>
-      </c>
       <c r="N7" s="7">
-        <v>1327</v>
+        <v>6102</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7">
-        <v>15885</v>
+        <v>26634</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>288</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>290</v>
       </c>
       <c r="H8" s="7">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="I8" s="7">
-        <v>11010</v>
+        <v>45975</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>293</v>
       </c>
       <c r="M8" s="7">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="N8" s="7">
-        <v>26894</v>
+        <v>72609</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,153 +4569,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D9" s="7">
-        <v>15885</v>
+        <v>28975</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I9" s="7">
-        <v>12337</v>
+        <v>49736</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="N9" s="7">
-        <v>28221</v>
+        <v>78711</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>3702</v>
+        <v>1231</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>337</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>2365</v>
+        <v>396</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>299</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>339</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="M10" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>6067</v>
+        <v>1627</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>341</v>
+        <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>44916</v>
+        <v>25005</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>346</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>26730</v>
+        <v>31284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="N11" s="7">
-        <v>71646</v>
+        <v>56290</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>349</v>
+        <v>293</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,153 +4724,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7">
-        <v>48618</v>
+        <v>26236</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I12" s="7">
-        <v>29095</v>
+        <v>31680</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="N12" s="7">
-        <v>77713</v>
+        <v>57917</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>388</v>
+        <v>2305</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>310</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1240</v>
+        <v>1186</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>1628</v>
+        <v>3491</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>39</v>
       </c>
       <c r="D14" s="7">
-        <v>29464</v>
+        <v>25744</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>317</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7">
-        <v>24081</v>
+        <v>27324</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N14" s="7">
-        <v>53545</v>
+        <v>53068</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>321</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,153 +4879,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7">
-        <v>29852</v>
+        <v>28049</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I15" s="7">
-        <v>25321</v>
+        <v>28510</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N15" s="7">
-        <v>55173</v>
+        <v>56559</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>1147</v>
+        <v>7160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>2349</v>
+        <v>5343</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="N16" s="7">
-        <v>3496</v>
+        <v>12503</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="D17" s="7">
-        <v>26254</v>
+        <v>93154</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>334</v>
       </c>
       <c r="H17" s="7">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="I17" s="7">
-        <v>26258</v>
+        <v>126249</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="M17" s="7">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="N17" s="7">
-        <v>52512</v>
+        <v>219403</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,217 +5034,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="D18" s="7">
-        <v>27401</v>
+        <v>100314</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="I18" s="7">
-        <v>28607</v>
+        <v>131592</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>83</v>
+        <v>341</v>
       </c>
       <c r="N18" s="7">
-        <v>56008</v>
+        <v>231906</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>10</v>
-      </c>
-      <c r="D19" s="7">
-        <v>5238</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H19" s="7">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7">
-        <v>7280</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="M19" s="7">
-        <v>22</v>
-      </c>
-      <c r="N19" s="7">
-        <v>12518</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>178</v>
-      </c>
-      <c r="D20" s="7">
-        <v>121187</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H20" s="7">
-        <v>141</v>
-      </c>
-      <c r="I20" s="7">
-        <v>92643</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="M20" s="7">
-        <v>319</v>
-      </c>
-      <c r="N20" s="7">
-        <v>213830</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>188</v>
-      </c>
-      <c r="D21" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>153</v>
-      </c>
-      <c r="I21" s="7">
-        <v>99923</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>341</v>
-      </c>
-      <c r="N21" s="7">
-        <v>226348</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
